--- a/biology/Zoologie/Garrulax/Garrulax.xlsx
+++ b/biology/Zoologie/Garrulax/Garrulax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Garrulax comprend des espèces de garrulaxes ou grives bruyantes, passereaux de la famille des Leiothrichidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Garrulax sont fortement commercialisées comme oiseaux chanteurs. Une enquête sur huit marchés d'oiseaux en Indonésie, réalisée en 2014-2015, a trouvé 615 Garrulaxes de neuf espèces ouvertement à vendre[1]. Le Garrulaxe bicolore, par exemple, est en grave déclin en raison du commerce illégal continu et incontrôlé sur les marchés d'oiseaux des îles de Java et de Sumatra, et se retrouve de plus en plus dans le commerce international, bien qu'en plus faible quantité[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Garrulax sont fortement commercialisées comme oiseaux chanteurs. Une enquête sur huit marchés d'oiseaux en Indonésie, réalisée en 2014-2015, a trouvé 615 Garrulaxes de neuf espèces ouvertement à vendre. Le Garrulaxe bicolore, par exemple, est en grave déclin en raison du commerce illégal continu et incontrôlé sur les marchés d'oiseaux des îles de Java et de Sumatra, et se retrouve de plus en plus dans le commerce international, bien qu'en plus faible quantité.
 </t>
         </is>
       </c>
@@ -542,12 +556,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Garrulax a été érigé par le naturaliste français René Lesson en 1831[3]. L'espèce type a été désignée en 1961 comme le Garrulaxe à front roux (Garrulax rufifrons)[4].
-Le genre comprenait auparavant plus d'espèces. À la suite de la publication d'une étude phylogénétique moléculaire complète en 2018, le genre Garrulax a été scindé et de nombreuses espèces ont été déplacées vers les genres ressuscités Ianthocincla et Pterorhinus[5],[6].
-Liste des espèces
-D'après la classification de référence (version 13.1, 2023) du Congrès ornithologique international (ordre phylogénique) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Garrulax a été érigé par le naturaliste français René Lesson en 1831. L'espèce type a été désignée en 1961 comme le Garrulaxe à front roux (Garrulax rufifrons).
+Le genre comprenait auparavant plus d'espèces. À la suite de la publication d'une étude phylogénétique moléculaire complète en 2018, le genre Garrulax a été scindé et de nombreuses espèces ont été déplacées vers les genres ressuscités Ianthocincla et Pterorhinus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Garrulax</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garrulax</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 13.1, 2023) du Congrès ornithologique international (ordre phylogénique) :
 Garrulax annamensis – Garrulaxe du Langbian
 Garrulax bicolor – Garrulaxe bicolore
 Garrulax canorus – Garrulaxe hoamy
@@ -562,8 +613,43 @@
 Garrulax rufifrons – Garrulaxe à front roux
 Garrulax strepitans – Garrulaxe bruyant
 Garrulax taewanus – Garrulaxe de Taïwan
-Liste des anciennes espèces
-La dernière classification de référence (version 13.1, 2023) du Congrès ornithologique international a sorti des espèces de ce genre Garrulax. Elles portent maintenant un autre nom :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Garrulax</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garrulax</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des anciennes espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La dernière classification de référence (version 13.1, 2023) du Congrès ornithologique international a sorti des espèces de ce genre Garrulax. Elles portent maintenant un autre nom :
 Garrulax lugubris (Garrulaxe noir) est devenue l'espèce Melanocichla lugubris
 Garrulax calvus – Garrulaxe chauve est devenue l'espèce Melanocichla calva.
 Garrulax striatus (Garrulaxe strié) est devenue l'espèce Grammatoptila striata (Grammatoptile strié).
